--- a/mercadotecnia.xlsx
+++ b/mercadotecnia.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandon/MyProjects/compareExcelEbcRuby/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A394DBED-AA3B-DC47-BE3F-28A1B5B5FC3A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1318C4E-715F-1749-828C-487996FC5191}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="108">
   <si>
     <t>CLAVE</t>
   </si>
@@ -425,51 +425,6 @@
   </si>
   <si>
     <t>8° semestre</t>
-  </si>
-  <si>
-    <t>MCZ27402</t>
-  </si>
-  <si>
-    <t>MCZ27403</t>
-  </si>
-  <si>
-    <t>MCZ27404</t>
-  </si>
-  <si>
-    <t>MCZ27405</t>
-  </si>
-  <si>
-    <t>MCZ27406</t>
-  </si>
-  <si>
-    <t>MCI27402</t>
-  </si>
-  <si>
-    <t>MCI27403</t>
-  </si>
-  <si>
-    <t>MCI27404</t>
-  </si>
-  <si>
-    <t>MCI27405</t>
-  </si>
-  <si>
-    <t>MCI27406</t>
-  </si>
-  <si>
-    <t>MIM27402</t>
-  </si>
-  <si>
-    <t>MIM27403</t>
-  </si>
-  <si>
-    <t>MIM27404</t>
-  </si>
-  <si>
-    <t>MIM27405</t>
-  </si>
-  <si>
-    <t>MIM27406</t>
   </si>
   <si>
     <t>MCI27604</t>
@@ -1006,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A55"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,7 +1011,7 @@
     </row>
     <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>6</v>
@@ -1070,7 +1025,7 @@
     </row>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
@@ -1084,7 +1039,7 @@
     </row>
     <row r="6" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>6</v>
@@ -1098,7 +1053,7 @@
     </row>
     <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>6</v>
@@ -1112,7 +1067,7 @@
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>6</v>
@@ -1140,7 +1095,7 @@
     </row>
     <row r="10" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>20</v>
@@ -1154,7 +1109,7 @@
     </row>
     <row r="11" spans="1:4" ht="76" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>20</v>
@@ -1168,7 +1123,7 @@
     </row>
     <row r="12" spans="1:4" ht="61" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>100</v>
+        <v>19</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>20</v>
@@ -1182,7 +1137,7 @@
     </row>
     <row r="13" spans="1:4" ht="76" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>101</v>
+        <v>19</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>20</v>
@@ -1196,7 +1151,7 @@
     </row>
     <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>20</v>
@@ -1224,7 +1179,7 @@
     </row>
     <row r="16" spans="1:4" ht="61" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>34</v>
@@ -1238,7 +1193,7 @@
     </row>
     <row r="17" spans="1:4" ht="76" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>34</v>
@@ -1252,7 +1207,7 @@
     </row>
     <row r="18" spans="1:4" ht="61" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>33</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>34</v>
@@ -1266,7 +1221,7 @@
     </row>
     <row r="19" spans="1:4" ht="76" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>106</v>
+        <v>33</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>34</v>
@@ -1280,7 +1235,7 @@
     </row>
     <row r="20" spans="1:4" ht="61" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>34</v>
@@ -1414,7 +1369,7 @@
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.2">
       <c r="A39" s="10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>50</v>
@@ -1428,7 +1383,7 @@
     </row>
     <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A40" s="10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>50</v>
@@ -1442,7 +1397,7 @@
     </row>
     <row r="41" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A41" s="10" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>50</v>
@@ -1456,7 +1411,7 @@
     </row>
     <row r="42" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A42" s="10" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>50</v>
@@ -1470,7 +1425,7 @@
     </row>
     <row r="43" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A43" s="10" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>50</v>
@@ -1498,7 +1453,7 @@
     </row>
     <row r="45" spans="1:4" ht="46" x14ac:dyDescent="0.2">
       <c r="A45" s="10" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>64</v>
@@ -1512,7 +1467,7 @@
     </row>
     <row r="46" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A46" s="10" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B46" s="10" t="s">
         <v>64</v>
@@ -1526,7 +1481,7 @@
     </row>
     <row r="47" spans="1:4" ht="76" x14ac:dyDescent="0.2">
       <c r="A47" s="10" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B47" s="10" t="s">
         <v>64</v>
@@ -1540,7 +1495,7 @@
     </row>
     <row r="48" spans="1:4" ht="91" x14ac:dyDescent="0.2">
       <c r="A48" s="10" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B48" s="10" t="s">
         <v>64</v>
@@ -1554,7 +1509,7 @@
     </row>
     <row r="49" spans="1:4" ht="106" x14ac:dyDescent="0.2">
       <c r="A49" s="10" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B49" s="10" t="s">
         <v>64</v>
@@ -1582,7 +1537,7 @@
     </row>
     <row r="51" spans="1:4" ht="45" x14ac:dyDescent="0.2">
       <c r="A51" s="12" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>78</v>
@@ -1596,7 +1551,7 @@
     </row>
     <row r="52" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>78</v>
@@ -1610,7 +1565,7 @@
     </row>
     <row r="53" spans="1:4" ht="105" x14ac:dyDescent="0.2">
       <c r="A53" s="12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>78</v>
@@ -1624,7 +1579,7 @@
     </row>
     <row r="54" spans="1:4" ht="90" x14ac:dyDescent="0.2">
       <c r="A54" s="12" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>78</v>
@@ -1638,7 +1593,7 @@
     </row>
     <row r="55" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>78</v>
